--- a/target/classes/documents/DAUN_04-04-21_MC.xlsx
+++ b/target/classes/documents/DAUN_04-04-21_MC.xlsx
@@ -6,39 +6,48 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="MCAK" r:id="rId3" sheetId="1"/>
+    <sheet name="MCBLN" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>100033</t>
+    <t>10001</t>
   </si>
   <si>
-    <t>MCAK</t>
+    <t>MCBLN</t>
   </si>
   <si>
-    <t>125</t>
+    <t>DAUN</t>
   </si>
   <si>
-    <t/>
+    <t>100</t>
   </si>
   <si>
-    <t>35.40</t>
+    <t>2.40</t>
   </si>
   <si>
-    <t>GEMS</t>
+    <t>Baloon</t>
   </si>
   <si>
-    <t>2pc</t>
+    <t>abcd</t>
   </si>
   <si>
-    <t xml:space="preserve">something </t>
+    <t>74875387</t>
+  </si>
+  <si>
+    <t>hdsyfjhdfh</t>
+  </si>
+  <si>
+    <t>347875875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somedata </t>
   </si>
 </sst>
 </file>
@@ -83,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:N2"/>
+  <dimension ref="B1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -113,19 +122,22 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
+      <c r="N2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
